--- a/biology/Zoologie/Cyclanorbis_elegans/Cyclanorbis_elegans.xlsx
+++ b/biology/Zoologie/Cyclanorbis_elegans/Cyclanorbis_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclanorbis elegans est une espèce de tortues de la famille des Trionychidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclanorbis elegans est une espèce de tortues de la famille des Trionychidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Bénin, au Cameroun, en République centrafricaine, au Tchad, au Ghana, au Nigeria, au Soudan et au Togo[1]. Sa présence est incertaine en Éthiopie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Bénin, au Cameroun, en République centrafricaine, au Tchad, au Ghana, au Nigeria, au Soudan et au Togo. Sa présence est incertaine en Éthiopie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1869 : Notes on the families and genera of tortoises (Testudinata), and on the characters afforded by the study of their skulls. Proceedings of the Zoological Society of London, vol. 1869, p. 165–225 (texte intégral).</t>
         </is>
